--- a/client/static/files/temp.xlsx
+++ b/client/static/files/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prmy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8FDF3-BCD3-8541-B970-651D6E0B7E16}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C931ED-D72F-9B4A-B6CD-EEE4418CF9F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="14880" xr2:uid="{4C10452E-0590-BF42-B156-D9670C4BB54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Which civilization is considered to be the oldest civilization in the world?</t>
   </si>
@@ -33,150 +33,42 @@
     <t>General knowledge</t>
   </si>
   <si>
-    <t>civilization</t>
-  </si>
-  <si>
-    <t>B. Sumerian civilization</t>
-  </si>
-  <si>
-    <t>A. Phrygia civilization</t>
-  </si>
-  <si>
-    <t>C. Elam civilization</t>
-  </si>
-  <si>
-    <t>D. Urartu civilization</t>
-  </si>
-  <si>
     <t>Largest producer of onions is _____________?</t>
   </si>
   <si>
     <t>largest</t>
   </si>
   <si>
-    <t>C. China</t>
-  </si>
-  <si>
-    <t>A. Russia</t>
-  </si>
-  <si>
-    <t>B. USA</t>
-  </si>
-  <si>
-    <t>D. India</t>
-  </si>
-  <si>
     <t>Ms. Kim Campbell was the first woman prime minister of___________?</t>
   </si>
   <si>
-    <t>first,prime minister</t>
-  </si>
-  <si>
-    <t>C. Canada</t>
-  </si>
-  <si>
-    <t>A. France</t>
-  </si>
-  <si>
-    <t>B. Germany</t>
-  </si>
-  <si>
-    <t>D. None of these</t>
-  </si>
-  <si>
     <t>The novel ” Sword of Tipu Sultan ” was written by __________?</t>
   </si>
   <si>
     <t>tipu sultan, novel</t>
   </si>
   <si>
-    <t>C. Bhagwan S. Gidwani</t>
-  </si>
-  <si>
-    <t>A. K.M Munshi</t>
-  </si>
-  <si>
-    <t>B. Leo Tolstoy</t>
-  </si>
-  <si>
     <t>who is the author of ” Nineteen Eighty-four ”?</t>
   </si>
   <si>
     <t>authors</t>
   </si>
   <si>
-    <t>B. George Orwell</t>
-  </si>
-  <si>
-    <t>A. Shakespeare</t>
-  </si>
-  <si>
-    <t>C. R.k laxman</t>
-  </si>
-  <si>
     <t>First Agriculture University of Pakistan is_________?</t>
   </si>
   <si>
-    <t>first,pakistan,uni</t>
-  </si>
-  <si>
-    <t>A. University of Agriculture, Faisalabad</t>
-  </si>
-  <si>
-    <t>B. University of Agriculture, Peshawar</t>
-  </si>
-  <si>
-    <t>C. University of Agriculture, Multan</t>
-  </si>
-  <si>
     <t>CIA intelligence agency of USA was established in___________?</t>
   </si>
   <si>
-    <t>usa,cia</t>
-  </si>
-  <si>
-    <t>D. 1947</t>
-  </si>
-  <si>
-    <t>A. 1943</t>
-  </si>
-  <si>
-    <t>B. 1944</t>
-  </si>
-  <si>
-    <t>C. 1945</t>
-  </si>
-  <si>
     <t>The First Android Mobile Launched in Which year?</t>
   </si>
   <si>
-    <t>android,first</t>
-  </si>
-  <si>
-    <t>B. September 2008</t>
-  </si>
-  <si>
     <t>A. September 2007</t>
   </si>
   <si>
-    <t>C. September 2009</t>
-  </si>
-  <si>
-    <t>D. September 2010</t>
-  </si>
-  <si>
     <t>The highest navigable lake in the world is:__________?</t>
   </si>
   <si>
-    <t>B. Titicaca Lake</t>
-  </si>
-  <si>
-    <t>A. Lake Victoria</t>
-  </si>
-  <si>
-    <t>C. Haleji Lake</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -204,10 +96,109 @@
     <t>option4</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>litrature</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Sumerian, civilization</t>
+  </si>
+  <si>
+    <t>first, prime minister</t>
+  </si>
+  <si>
+    <t>first, pakistan, uni</t>
+  </si>
+  <si>
+    <t>usa, cia</t>
+  </si>
+  <si>
+    <t>android, first</t>
+  </si>
+  <si>
+    <t>Sumerian civilization</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Bhagwan S. Gidwani</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>University of Agriculture, Faisalabad</t>
+  </si>
+  <si>
+    <t>Titicaca Lake</t>
+  </si>
+  <si>
+    <t>Phrygia civilization</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Shakespeare</t>
+  </si>
+  <si>
+    <t>Lake Victoria</t>
+  </si>
+  <si>
+    <t>K.M Munshi</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>University of Agriculture, Peshawar</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Elam civilization</t>
+  </si>
+  <si>
+    <t>University of Agriculture, Multan</t>
+  </si>
+  <si>
+    <t>Haleji Lake</t>
+  </si>
+  <si>
+    <t>R.k laxman</t>
+  </si>
+  <si>
+    <t>Urartu civilization</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>pakistan</t>
   </si>
 </sst>
 </file>
@@ -262,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,7 +261,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,340 +595,292 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1">
         <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1947</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1943</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1944</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1945</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1947</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7">
+        <v>39692</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="1">
-        <v>2</v>
+      <c r="G9" s="8">
+        <v>39692</v>
+      </c>
+      <c r="H9" s="8">
+        <v>40057</v>
+      </c>
+      <c r="I9" s="8">
+        <v>40422</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
